--- a/getallen en variabelen/AAAgetallen en variabelen.xlsx
+++ b/getallen en variabelen/AAAgetallen en variabelen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/getallen en variabelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC1ADEFE-DAC9-47CF-8851-E0711D050DA8}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6A433F-6C63-4447-A91B-A757BE914AC6}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="1910" windowWidth="16200" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Gehelegetallen</t>
   </si>
   <si>
     <t>Decimalengetallen</t>
+  </si>
+  <si>
+    <t>Kommagetallen</t>
+  </si>
+  <si>
+    <t>Komma</t>
+  </si>
+  <si>
+    <t>Getallen</t>
+  </si>
+  <si>
+    <t>Cijfers</t>
+  </si>
+  <si>
+    <t>Gehelegetallen, Komma, Cijfers</t>
+  </si>
+  <si>
+    <t>Decimalengetallen, gehelegetallen, Coördinaten</t>
+  </si>
+  <si>
+    <t>Afronden</t>
+  </si>
+  <si>
+    <t>Schatten</t>
+  </si>
+  <si>
+    <t>Cijfers, Komma, Breuken, Negatievegetallen</t>
+  </si>
+  <si>
+    <t>Negatievegetallen</t>
+  </si>
+  <si>
+    <t>minteken</t>
+  </si>
+  <si>
+    <t>Getallen, Decimalengetallen</t>
+  </si>
+  <si>
+    <t>cijfers, negatievegetallen, decimalengetallen</t>
+  </si>
+  <si>
+    <t>Getallen, minteken</t>
+  </si>
+  <si>
+    <t>Grafischerekenmachine</t>
   </si>
 </sst>
 </file>
@@ -46,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,7 +119,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -84,6 +135,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,223 +404,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
-    <col min="2" max="2" width="75.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.46484375" customWidth="1"/>
+    <col min="2" max="2" width="75.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B12">
+    <sortCondition ref="A1:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/getallen en variabelen/AAAgetallen en variabelen.xlsx
+++ b/getallen en variabelen/AAAgetallen en variabelen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/getallen en variabelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6A433F-6C63-4447-A91B-A757BE914AC6}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0218D552-D727-4CEE-9A98-FA1317111CC5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Gehelegetallen</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Grafischerekenmachine</t>
+  </si>
+  <si>
+    <t>Kwadraat</t>
+  </si>
+  <si>
+    <t>getal, vermenigvuldingen, Wortel</t>
+  </si>
+  <si>
+    <t>Wortel</t>
+  </si>
+  <si>
+    <t>getal, vermenigvuldingen,kwadraat, negatief</t>
   </si>
 </sst>
 </file>
@@ -404,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -498,6 +510,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B12">
     <sortCondition ref="A1:A12"/>
